--- a/CourseCalculator.xlsx
+++ b/CourseCalculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDB74C9-1F06-49BB-B4CD-7E86EC4408AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59F9707-742A-491B-9C85-3A89F6E02FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0C0D3B4C-883B-49E9-A27C-C148A4AB1D30}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C0D3B4C-883B-49E9-A27C-C148A4AB1D30}"/>
   </bookViews>
   <sheets>
     <sheet name="1o_Ano" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>Cadeira</t>
   </si>
@@ -72,27 +72,15 @@
     <t>ECT</t>
   </si>
   <si>
-    <t>Total ECT</t>
-  </si>
-  <si>
     <t>Final</t>
   </si>
   <si>
     <t>(Nota * ECT) / TECT</t>
   </si>
   <si>
-    <t>1º Semestre - 1º ano</t>
-  </si>
-  <si>
-    <t>2º Semestre - 1º ano</t>
-  </si>
-  <si>
     <t>Media Final 1º ano</t>
   </si>
   <si>
-    <t>(Nota * ECT) /  TECT</t>
-  </si>
-  <si>
     <t>Total ECT (TECT)</t>
   </si>
   <si>
@@ -102,12 +90,6 @@
     <t>2º Semestre - 2º ano</t>
   </si>
   <si>
-    <t>Media Final 2º ano</t>
-  </si>
-  <si>
-    <t>Media Final 3º ano</t>
-  </si>
-  <si>
     <t>1º Semestre - 3º ano</t>
   </si>
   <si>
@@ -148,14 +130,25 @@
   </si>
   <si>
     <t>3o ano</t>
+  </si>
+  <si>
+    <t>(Nota * ECT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -177,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -210,19 +203,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -230,30 +210,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -281,9 +237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -291,28 +244,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,57 +582,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F141C885-013F-41C2-B58E-D968425B9F0C}">
-  <dimension ref="B2:R30"/>
+  <dimension ref="B2:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:E18"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="4" max="4" width="4.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" customWidth="1"/>
-    <col min="13" max="13" width="4.6328125" customWidth="1"/>
-    <col min="15" max="15" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="6" max="7" width="17.6328125" customWidth="1"/>
+    <col min="12" max="12" width="20.6328125" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" customWidth="1"/>
+    <col min="16" max="17" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="K2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2">
         <v>12</v>
@@ -687,32 +647,40 @@
         <v>10</v>
       </c>
       <c r="F3" s="2">
-        <f>(C3*D3)/D$12</f>
-        <v>8</v>
-      </c>
-      <c r="H3" s="6">
-        <f>SUM(F3:F10)</f>
-        <v>13</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
+        <f>(C3*D3)</f>
+        <v>120</v>
+      </c>
+      <c r="G3" s="12">
+        <f>F3/$D$12</f>
+        <v>5.2173913043478262</v>
+      </c>
+      <c r="I3" s="5">
+        <f>SUM(F3:F10)/D12</f>
+        <v>11.956521739130435</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2">
         <v>10</v>
       </c>
-      <c r="M3" s="2">
-        <v>10</v>
-      </c>
-      <c r="O3" s="2">
-        <f>(L3*M3)/M$12</f>
-        <v>10</v>
-      </c>
-      <c r="Q3" s="2">
-        <f>SUM(O3:O10)</f>
-        <v>10</v>
-      </c>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="P3" s="2">
+        <f>(M3*N3)</f>
+        <v>120</v>
+      </c>
+      <c r="Q3" s="12">
+        <f>P3/$D$12</f>
+        <v>5.2173913043478262</v>
+      </c>
+      <c r="S3" s="5">
+        <f>SUM(P3:P10)/N12</f>
+        <v>11.956521739130435</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2">
         <v>15</v>
@@ -721,40 +689,62 @@
         <v>5</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F10" si="0">(C4*D4)/D$12</f>
-        <v>5</v>
-      </c>
-      <c r="K4" s="2"/>
+        <f t="shared" ref="F4:F10" si="0">(C4*D4)</f>
+        <v>75</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G10" si="1">F4/$D$12</f>
+        <v>3.2608695652173911</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" ref="O4:O10" si="1">(L4*M4)/M$12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2">
+        <f>(M4*N4)</f>
+        <v>75</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" ref="Q4:Q10" si="2">P4/$D$12</f>
+        <v>3.2608695652173911</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>3.4782608695652173</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2">
+        <v>8</v>
+      </c>
+      <c r="P5" s="2">
+        <f>(M5*N5)</f>
+        <v>80</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" si="2"/>
+        <v>3.4782608695652173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
@@ -764,17 +754,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <f>(M6*N6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
@@ -784,17 +782,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <f>(M7*N7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -804,17 +810,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="G8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <f>(M8*N8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -824,17 +838,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="G9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <f>(M9*N9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -844,97 +866,96 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <f>(M10*N10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="2">
         <f>SUM(D3:D10)</f>
-        <v>15</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="2">
-        <f>SUM(M3:M10)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="7"/>
-      <c r="K14" s="10" t="s">
+      <c r="M12" s="8"/>
+      <c r="N12" s="2">
+        <f>SUM(N3:N10)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8">
-        <f>H3+Q3</f>
-        <v>23</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16">
+        <f>SUM(F3:F10,P3:P10)/SUM(D12,N12)</f>
+        <v>11.956521739130435</v>
+      </c>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30">
-        <f>D17</f>
-        <v>23</v>
-      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="B14:H14"/>
+  <mergeCells count="5">
+    <mergeCell ref="B14:I14"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -942,603 +963,753 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B10DC5-3B08-4EEE-B943-468C51163C60}">
-  <dimension ref="B2:R30"/>
+  <dimension ref="B2:S18"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" customWidth="1"/>
-    <col min="15" max="15" width="17.6328125" customWidth="1"/>
+    <col min="6" max="7" width="17.6328125" customWidth="1"/>
+    <col min="12" max="12" width="20.6328125" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" customWidth="1"/>
+    <col min="16" max="17" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="K2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
       <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="e">
-        <f>(C3*D3)/D$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="6" t="e">
-        <f>SUM(F3:F10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="K3" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <f>(C3*D3)</f>
+        <v>120</v>
+      </c>
+      <c r="G3" s="12">
+        <f>F3/$D$12</f>
+        <v>5.2173913043478262</v>
+      </c>
+      <c r="I3" s="5">
+        <f>SUM(F3:F10)/D12</f>
+        <v>11.956521739130435</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="e">
-        <f>(L3*M3)/M$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q3" s="2" t="e">
-        <f>SUM(O3:O10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2">
+        <v>10</v>
+      </c>
+      <c r="P3" s="2">
+        <f>(M3*N3)</f>
+        <v>120</v>
+      </c>
+      <c r="Q3" s="12">
+        <f>P3/$D$12</f>
+        <v>5.2173913043478262</v>
+      </c>
+      <c r="S3" s="5">
+        <f>SUM(P3:P10)/N12</f>
+        <v>11.956521739130435</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>15</v>
+      </c>
       <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="e">
-        <f t="shared" ref="F4:F10" si="0">(C4*D4)/D$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F10" si="0">(C4*D4)</f>
+        <v>75</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G10" si="1">F4/$D$12</f>
+        <v>3.2608695652173911</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="e">
-        <f t="shared" ref="O4:O10" si="1">(L4*M4)/M$12</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2">
+        <f>(M4*N4)</f>
+        <v>75</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" ref="Q4:Q10" si="2">P4/$D$12</f>
+        <v>3.2608695652173911</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
       <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="e">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>3.4782608695652173</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2">
+        <v>8</v>
+      </c>
+      <c r="P5" s="2">
+        <f>(M5*N5)</f>
+        <v>80</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" si="2"/>
+        <v>3.4782608695652173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="e">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <f>(M6*N6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="e">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <f>(M7*N7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="e">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <f>(M8*N8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="e">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <f>(M9*N9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="e">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <f>(M10*N10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="2">
         <f>SUM(D3:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="2">
-        <f>SUM(M3:M10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="7"/>
-      <c r="K14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="2">
+        <f>SUM(N3:N10)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8" t="e">
-        <f>H3+Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16">
+        <f>SUM(F3:F10,P3:P10)/SUM(D12,N12)</f>
+        <v>11.956521739130435</v>
+      </c>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" t="e">
-        <f>D17</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE2F24-642A-4A60-8F94-E09F599C3595}">
-  <dimension ref="B2:R30"/>
+  <dimension ref="B2:S18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.6328125" customWidth="1"/>
-    <col min="11" max="11" width="20.6328125" customWidth="1"/>
-    <col min="15" max="15" width="17.6328125" customWidth="1"/>
+    <col min="6" max="7" width="17.6328125" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="20.6328125" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" customWidth="1"/>
+    <col min="16" max="17" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="K2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="P2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="S2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
       <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="e">
-        <f>(C3*D3)/D$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="6" t="e">
-        <f>SUM(F3:F10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="K3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <f>(C3*D3)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <f>F3/$D$12</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <f>SUM(F3:F10)/D12</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="e">
-        <f>(L3*M3)/M$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q3" s="2" t="e">
-        <f>SUM(O3:O10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <f>(M3*N3)</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="12">
+        <f>P3/$D$12</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="5">
+        <f>SUM(P3:P10)/N12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="e">
-        <f t="shared" ref="F4:F10" si="0">(C4*D4)/D$12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="2"/>
+      <c r="F4" s="2">
+        <f t="shared" ref="F4:F10" si="0">(C4*D4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G10" si="1">F4/$D$12</f>
+        <v>0</v>
+      </c>
       <c r="L4" s="2"/>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="e">
-        <f t="shared" ref="O4:O10" si="1">(L4*M4)/M$12</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <f>(M4*N4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
+        <f t="shared" ref="Q4:Q10" si="2">P4/$D$12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="e">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L5" s="2"/>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <f>(M5*N5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="e">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L6" s="2"/>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <f>(M6*N6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="e">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L7" s="2"/>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <f>(M7*N7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="e">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L8" s="2"/>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <f>(M8*N8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="e">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L9" s="2"/>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <f>(M9*N9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="e">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="L10" s="2"/>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <f>(M10*N10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="2">
         <f>SUM(D3:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="2">
-        <f>SUM(M3:M10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="7"/>
-      <c r="K14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="2">
+        <f>SUM(N3:N10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8" t="e">
-        <f>H3+Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16">
+        <f>SUM(F3:F10,P3:P10)/SUM(D12,N12)</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" t="e">
-        <f>D17</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="K14:Q14"/>
-    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1549,24 +1720,24 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="10"/>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
-        <f>IF(ISERROR('1o_Ano'!B30),0,'1o_Ano'!B30)</f>
-        <v>23</v>
+        <f>IF(ISERROR('1o_Ano'!D17),0,'1o_Ano'!D17)</f>
+        <v>11.956521739130435</v>
       </c>
       <c r="D3" s="2">
         <f>IF(C3&lt;&gt;0,1,0)</f>
@@ -1575,37 +1746,37 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
-        <f>IF(ISERROR('2o_Ano'!B30),0,'2o_Ano'!B30)</f>
-        <v>0</v>
+        <f>IF(ISERROR('2o_Ano'!D17),0,'2o_Ano'!D17)</f>
+        <v>11.956521739130435</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D5" si="0">IF(C4&lt;&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2">
-        <f>IF(ISERROR('3o_Ano'!B30),0,'3o_Ano'!B30)</f>
-        <v>0</v>
+        <f>IF(ISERROR('3o_Ano'!D17),0,'3o_Ano'!D17)</f>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>4</v>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C3:C5)/SUM(D3:D5)</f>
-        <v>23</v>
+        <v>8.304347826086957</v>
       </c>
     </row>
   </sheetData>
@@ -1633,23 +1804,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
@@ -1657,11 +1828,11 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="G3" s="14" cm="1">
+      <c r="G3" s="9" cm="1">
         <f t="array" ref="G3">SUM(B3:B12*(C3:C12/100))</f>
         <v>0</v>
       </c>
-      <c r="H3" s="14" cm="1">
+      <c r="H3" s="9" cm="1">
         <f t="array" ref="H3">SUM(D3:D12*(E3:E12/100))</f>
         <v>0</v>
       </c>
@@ -1671,8 +1842,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
@@ -1691,29 +1862,29 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="10"/>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <f>SUM(G3*(B15/100)+H3*(D15/100))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
@@ -1734,20 +1905,20 @@
       <c r="E12" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="B16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
